--- a/src/main/webapp/DB/TableDesign.xlsx
+++ b/src/main/webapp/DB/TableDesign.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>user表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,22 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D40"/>
+  <dimension ref="B4:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1031,6 +1047,28 @@
       </c>
       <c r="D40" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/DB/TableDesign.xlsx
+++ b/src/main/webapp/DB/TableDesign.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table_design" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
-  <si>
-    <t>user表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resume 表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,18 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>option表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mylabel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的标签（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +291,242 @@
   </si>
   <si>
     <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的标签（技术男;傻白甜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtypeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应option表中的工种id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobloction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruitment_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪水单位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作薪水金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元/(次，单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_begin_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0待审核；1审核中；2审核未通过；3审核通过；4用户取消审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_logo_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司logo地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,15 +892,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D42"/>
+  <dimension ref="B4:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -690,385 +910,847 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>68</v>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
+      <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/DB/TableDesign.xlsx
+++ b/src/main/webapp/DB/TableDesign.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,11 +522,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_logo_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司logo地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作协议照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_logo_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperative_agreements_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_licence_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0待审核；1审核通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,15 +912,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E88"/>
+  <dimension ref="B4:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -1665,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:5">
       <c r="B81" t="s">
         <v>118</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
         <v>120</v>
       </c>
@@ -1687,7 +1707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:5">
       <c r="B83" t="s">
         <v>101</v>
       </c>
@@ -1698,7 +1718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:5">
       <c r="B84" t="s">
         <v>121</v>
       </c>
@@ -1709,7 +1729,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:5">
       <c r="B85" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:5">
       <c r="B86" t="s">
         <v>68</v>
       </c>
@@ -1731,7 +1751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:5">
       <c r="B87" t="s">
         <v>124</v>
       </c>
@@ -1742,15 +1762,84 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/DB/TableDesign.xlsx
+++ b/src/main/webapp/DB/TableDesign.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项值，如果类型为type=0这里放空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,247 +294,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的标签（技术男;傻白甜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtypeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应option表中的工种id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobloction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruitment_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪水单位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作薪水金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元/(次，单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_begin_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0待审核；1审核中；2审核未通过；3审核通过；4用户取消审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司logo地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作协议照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_logo_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperative_agreements_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_licence_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0待审核；1审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tb_resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的标签（技术男;傻白甜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobtypeid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应option表中的工种id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobtitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobloction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobcontent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruitment_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪水单位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary_unit_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作薪水金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元/(次，单)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_begin_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0待审核；1审核中；2审核未通过；3审核通过；4用户取消审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit_person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司logo地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作协议照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_logo_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooperative_agreements_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_licence_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0待审核；1审核通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -930,21 +926,21 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -952,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -960,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -971,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -982,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -993,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1004,10 +1000,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1015,18 +1011,18 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1037,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1045,10 +1041,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1056,54 +1052,54 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -1111,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1119,128 +1115,128 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -1248,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -1256,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1267,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1278,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -1289,10 +1285,10 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -1300,84 +1296,84 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
         <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -1385,150 +1381,150 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
         <v>90</v>
-      </c>
-      <c r="E57" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -1536,112 +1532,112 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
         <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -1649,37 +1645,37 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -1687,159 +1683,159 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E91" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/DB/TableDesign.xlsx
+++ b/src/main/webapp/DB/TableDesign.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,14 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +535,54 @@
   </si>
   <si>
     <t>tb_resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存放页面可变的标签，如select标签的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_begin_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作开始日期(2016-1-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结束日期(2016-2-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作开始时间(8:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结束时间(16:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E94"/>
+  <dimension ref="B4:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -931,6 +971,9 @@
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
@@ -1090,6 +1133,9 @@
       <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
@@ -1123,7 +1169,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -1134,7 +1180,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1156,7 +1202,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>45</v>
@@ -1225,7 +1271,10 @@
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -1364,6 +1413,9 @@
       <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
@@ -1455,387 +1507,412 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="1" t="s">
+      <c r="D77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" t="s">
         <v>37</v>
       </c>
-      <c r="D94" t="s">
-        <v>106</v>
+      <c r="D96" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
